--- a/Industrials.xlsx
+++ b/Industrials.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Sectors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFACD962-CBF1-4987-A8F7-54B925D72BFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E1A6AA6-F327-4C2D-8A45-F299E16CD456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="4680" windowWidth="38175" windowHeight="15240" activeTab="3" xr2:uid="{BC09624D-2BC9-4D8E-825C-85DD97F4255E}"/>
+    <workbookView xWindow="225" yWindow="1950" windowWidth="38175" windowHeight="15240" activeTab="3" xr2:uid="{BC09624D-2BC9-4D8E-825C-85DD97F4255E}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -51,6 +51,8 @@
     <externalReference r:id="rId34"/>
     <externalReference r:id="rId35"/>
     <externalReference r:id="rId36"/>
+    <externalReference r:id="rId37"/>
+    <externalReference r:id="rId38"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -73,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3378" uniqueCount="2214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3380" uniqueCount="2214">
   <si>
     <t>Industrials Universe</t>
   </si>
@@ -7336,7 +7338,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -7392,6 +7394,84 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="2">
+          <cell r="K2">
+            <v>114</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="K4">
+            <v>106384.8</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="K5">
+            <v>695</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="K6">
+            <v>22652</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink21.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="K2">
+            <v>150.99</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="K4">
+            <v>94947.775058430008</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="K5">
+            <v>401</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="K6">
+            <v>20894</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink22.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
           <cell r="J2">
             <v>41.41</v>
           </cell>
@@ -7418,7 +7498,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink23.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -7457,7 +7537,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink24.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -7496,7 +7576,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink25.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -7533,7 +7613,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink26.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -7572,7 +7652,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink27.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -7611,7 +7691,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink28.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -7650,7 +7730,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink29.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -7680,84 +7760,6 @@
         <row r="6">
           <cell r="K6">
             <v>680.28899999999999</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink28.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="Model"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="I2">
-            <v>1332</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="I4">
-            <v>57409.200000000004</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="I5">
-            <v>1184</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="I6">
-            <v>2423</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink29.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="Model"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="I2">
-            <v>265.20999999999998</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="I4">
-            <v>10400.271678719999</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="I5">
-            <v>11</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="I6">
-            <v>2657</v>
           </cell>
         </row>
       </sheetData>
@@ -7817,23 +7819,101 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="2">
-          <cell r="K2">
-            <v>114</v>
+          <cell r="I2">
+            <v>1332</v>
           </cell>
         </row>
         <row r="4">
-          <cell r="K4">
-            <v>106384.8</v>
+          <cell r="I4">
+            <v>57409.200000000004</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="K5">
-            <v>695</v>
+          <cell r="I5">
+            <v>1184</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="K6">
-            <v>22652</v>
+          <cell r="I6">
+            <v>2423</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink31.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="I2">
+            <v>265.20999999999998</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="I4">
+            <v>10400.271678719999</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="I5">
+            <v>11</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="I6">
+            <v>2657</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink32.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="J2">
+            <v>98.26</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="J4">
+            <v>83206.352417560003</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="J5">
+            <v>5065</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="J6">
+            <v>21369</v>
           </cell>
         </row>
       </sheetData>
@@ -23590,7 +23670,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23676,7 +23756,7 @@
         <v>175035.27407262</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>237</v>
+        <v>2201</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -23718,7 +23798,7 @@
         <f t="shared" ref="A6:A69" si="0">+A5+1</f>
         <v>3</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>423</v>
       </c>
       <c r="C6" t="s">
@@ -23727,9 +23807,25 @@
       <c r="D6" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
+      <c r="E6">
+        <f>+[32]Main!$J$2</f>
+        <v>98.26</v>
+      </c>
+      <c r="F6" s="8">
+        <f>+[32]Main!$J$4</f>
+        <v>83206.352417560003</v>
+      </c>
+      <c r="G6" s="8">
+        <f>+[32]Main!$J$6-[32]Main!$J$5</f>
+        <v>16304</v>
+      </c>
+      <c r="H6" s="8">
+        <f>+F6+G6</f>
+        <v>99510.352417560003</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>2201</v>
+      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
@@ -23746,15 +23842,15 @@
         <v>976</v>
       </c>
       <c r="E7">
-        <f>+[30]Main!$K$2</f>
+        <f>+[20]Main!$K$2</f>
         <v>114</v>
       </c>
       <c r="F7" s="8">
-        <f>+[30]Main!$K$4*FX!C9</f>
+        <f>+[20]Main!$K$4*FX!C9</f>
         <v>76597.055999999997</v>
       </c>
       <c r="G7" s="8">
-        <f>+([30]Main!$K$6-[30]Main!$K$5)*FX!C9</f>
+        <f>+([20]Main!$K$6-[20]Main!$K$5)*FX!C9</f>
         <v>15809.039999999999</v>
       </c>
       <c r="H7" s="8">
@@ -23779,9 +23875,25 @@
       <c r="D8" t="s">
         <v>976</v>
       </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
+      <c r="E8" s="10">
+        <f>+[21]Main!$K$2</f>
+        <v>150.99</v>
+      </c>
+      <c r="F8" s="8">
+        <f>+[21]Main!$K$4*FX!C9</f>
+        <v>68362.398042069603</v>
+      </c>
+      <c r="G8" s="8">
+        <f>+([21]Main!$K$6-[21]Main!$K$5)*FX!C9</f>
+        <v>14754.96</v>
+      </c>
+      <c r="H8" s="8">
+        <f>+F8+G8</f>
+        <v>83117.358042069594</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
@@ -23942,15 +24054,15 @@
         <v>2</v>
       </c>
       <c r="E17">
-        <f>+[20]Main!$J$2</f>
+        <f>+[22]Main!$J$2</f>
         <v>41.41</v>
       </c>
       <c r="F17" s="8">
-        <f>+[20]Main!$J$4</f>
+        <f>+[22]Main!$J$4</f>
         <v>27038.873548289997</v>
       </c>
       <c r="G17" s="8">
-        <f>+[20]Main!$J$6-[20]Main!$J$5</f>
+        <f>+[22]Main!$J$6-[22]Main!$J$5</f>
         <v>12113</v>
       </c>
       <c r="H17" s="8">
@@ -24012,15 +24124,15 @@
         <v>10</v>
       </c>
       <c r="E20">
-        <f>+[21]Main!$K$2</f>
+        <f>+[23]Main!$K$2</f>
         <v>3048</v>
       </c>
       <c r="F20" s="8">
-        <f>+[21]Main!$K$4*FX!C6</f>
+        <f>+[23]Main!$K$4*FX!C6</f>
         <v>22758.353483659201</v>
       </c>
       <c r="G20" s="8">
-        <f>+([21]Main!$K$6-[21]Main!$K$5)*FX!C6</f>
+        <f>+([23]Main!$K$6-[23]Main!$K$5)*FX!C6</f>
         <v>28538.518800000002</v>
       </c>
       <c r="H20" s="8">
@@ -28856,6 +28968,7 @@
     <hyperlink ref="B17" r:id="rId4" xr:uid="{83D0CAD2-3A6D-4DF3-9110-635DB2D2F526}"/>
     <hyperlink ref="B8" r:id="rId5" xr:uid="{D6A631A5-1AC3-4B17-8C95-CBA0B1488886}"/>
     <hyperlink ref="B7" r:id="rId6" xr:uid="{CF58832A-C9D8-4DB5-B753-051CCE7F3A0F}"/>
+    <hyperlink ref="B6" r:id="rId7" xr:uid="{01366260-8CA1-43A2-8E4D-0BF0B2049B1E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -28936,15 +29049,15 @@
         <v>2</v>
       </c>
       <c r="E4" s="8">
-        <f>+[22]Main!$H$3</f>
+        <f>+[24]Main!$H$3</f>
         <v>118.44</v>
       </c>
       <c r="F4" s="8">
-        <f>+[22]Main!$H$5</f>
+        <f>+[24]Main!$H$5</f>
         <v>157553.55050904001</v>
       </c>
       <c r="G4" s="8">
-        <f>+[22]Main!$H$7-[22]Main!$H$6</f>
+        <f>+[24]Main!$H$7-[24]Main!$H$6</f>
         <v>36140</v>
       </c>
       <c r="H4" s="8">
@@ -29004,15 +29117,15 @@
         <v>2</v>
       </c>
       <c r="E6" s="8">
-        <f>+[23]Main!$K$3</f>
+        <f>+[25]Main!$K$3</f>
         <v>198.13</v>
       </c>
       <c r="F6" s="8">
-        <f>+[23]Main!$K$5</f>
+        <f>+[25]Main!$K$5</f>
         <v>128719.35485599999</v>
       </c>
       <c r="G6" s="8">
-        <f>+[23]Main!$K$7-[23]Main!$K$6</f>
+        <f>+[25]Main!$K$7-[25]Main!$K$6</f>
         <v>18125</v>
       </c>
       <c r="H6" s="8">
@@ -29057,15 +29170,15 @@
         <v>2</v>
       </c>
       <c r="E8" s="8">
-        <f>+[24]Main!$H$2</f>
+        <f>+[26]Main!$H$2</f>
         <v>304.8</v>
       </c>
       <c r="F8" s="8">
-        <f>+[24]Main!$H$4</f>
+        <f>+[26]Main!$H$4</f>
         <v>83752.206079199997</v>
       </c>
       <c r="G8" s="8">
-        <f>+[24]Main!$H$6-[24]Main!$H$5</f>
+        <f>+[26]Main!$H$6-[26]Main!$H$5</f>
         <v>7899</v>
       </c>
       <c r="H8" s="8">
@@ -29091,15 +29204,15 @@
         <v>2</v>
       </c>
       <c r="E9">
-        <f>+[25]Main!$K$2</f>
+        <f>+[27]Main!$K$2</f>
         <v>519.92999999999995</v>
       </c>
       <c r="F9" s="8">
-        <f>+[25]Main!$K$4</f>
+        <f>+[27]Main!$K$4</f>
         <v>76037.290752779998</v>
       </c>
       <c r="G9" s="8">
-        <f>+[25]Main!$K$6-[25]Main!$K$5</f>
+        <f>+[27]Main!$K$6-[27]Main!$K$5</f>
         <v>11434</v>
       </c>
       <c r="H9" s="8">
@@ -29144,15 +29257,15 @@
         <v>2</v>
       </c>
       <c r="E11" s="8">
-        <f>+[26]Main!$I$3</f>
+        <f>+[28]Main!$I$3</f>
         <v>227.23</v>
       </c>
       <c r="F11" s="8">
-        <f>+[26]Main!$I$5</f>
+        <f>+[28]Main!$I$5</f>
         <v>43106.710323699997</v>
       </c>
       <c r="G11" s="8">
-        <f>+[26]Main!$I$7-[26]Main!$I$6</f>
+        <f>+[28]Main!$I$7-[28]Main!$I$6</f>
         <v>12705</v>
       </c>
       <c r="H11" s="8">
@@ -29197,15 +29310,15 @@
         <v>2</v>
       </c>
       <c r="E13" s="8">
-        <f>+[27]Main!$K$2</f>
+        <f>+[29]Main!$K$2</f>
         <v>628.66999999999996</v>
       </c>
       <c r="F13" s="8">
-        <f>+[27]Main!$K$4</f>
+        <f>+[29]Main!$K$4</f>
         <v>48170.74863622</v>
       </c>
       <c r="G13" s="8">
-        <f>+[27]Main!$K$6-[27]Main!$K$5</f>
+        <f>+[29]Main!$K$6-[29]Main!$K$5</f>
         <v>-306.06000000000006</v>
       </c>
       <c r="H13" s="8">
@@ -29269,15 +29382,15 @@
         <v>31</v>
       </c>
       <c r="E16" s="8">
-        <f>+[28]Main!$I$2</f>
+        <f>+[30]Main!$I$2</f>
         <v>1332</v>
       </c>
       <c r="F16" s="8">
-        <f>+[28]Main!$I$4*FX!C3</f>
+        <f>+[30]Main!$I$4*FX!C3</f>
         <v>62576.028000000013</v>
       </c>
       <c r="G16" s="8">
-        <f>+([28]Main!$I$6-[28]Main!$I$5)*FX!C3</f>
+        <f>+([30]Main!$I$6-[30]Main!$I$5)*FX!C3</f>
         <v>1350.51</v>
       </c>
       <c r="H16" s="8">
@@ -29379,15 +29492,15 @@
         <v>2</v>
       </c>
       <c r="E21" s="8">
-        <f>+[29]Main!$I$2</f>
+        <f>+[31]Main!$I$2</f>
         <v>265.20999999999998</v>
       </c>
       <c r="F21" s="8">
-        <f>+[29]Main!$I$4</f>
+        <f>+[31]Main!$I$4</f>
         <v>10400.271678719999</v>
       </c>
       <c r="G21" s="8">
-        <f>+[29]Main!$I$6-[29]Main!$I$5</f>
+        <f>+[31]Main!$I$6-[31]Main!$I$5</f>
         <v>2646</v>
       </c>
       <c r="H21" s="8">

--- a/Industrials.xlsx
+++ b/Industrials.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Sectors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E1A6AA6-F327-4C2D-8A45-F299E16CD456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B335331A-8F88-4E60-828D-980CC0B7D896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="1950" windowWidth="38175" windowHeight="15240" activeTab="3" xr2:uid="{BC09624D-2BC9-4D8E-825C-85DD97F4255E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" activeTab="3" xr2:uid="{BC09624D-2BC9-4D8E-825C-85DD97F4255E}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -53,6 +53,7 @@
     <externalReference r:id="rId36"/>
     <externalReference r:id="rId37"/>
     <externalReference r:id="rId38"/>
+    <externalReference r:id="rId39"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -75,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3380" uniqueCount="2214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3381" uniqueCount="2214">
   <si>
     <t>Industrials Universe</t>
   </si>
@@ -7338,7 +7339,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -7394,6 +7395,45 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="2">
+          <cell r="J2">
+            <v>98.26</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="J4">
+            <v>83206.352417560003</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="J5">
+            <v>5065</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="J6">
+            <v>21369</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink21.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
           <cell r="K2">
             <v>114</v>
           </cell>
@@ -7420,7 +7460,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink22.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -7459,7 +7499,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink23.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -7498,7 +7538,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink24.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -7537,7 +7577,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink25.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -7576,7 +7616,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink26.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -7613,7 +7653,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink27.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -7652,7 +7692,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink28.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -7691,7 +7731,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink29.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -7721,45 +7761,6 @@
         <row r="7">
           <cell r="I7">
             <v>13252</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink29.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="Model"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="K2">
-            <v>628.66999999999996</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="K4">
-            <v>48170.74863622</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="K5">
-            <v>986.34900000000005</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="K6">
-            <v>680.28899999999999</v>
           </cell>
         </row>
       </sheetData>
@@ -7819,6 +7820,45 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="2">
+          <cell r="K2">
+            <v>628.66999999999996</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="K4">
+            <v>48170.74863622</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="K5">
+            <v>986.34900000000005</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="K6">
+            <v>680.28899999999999</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink31.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
           <cell r="I2">
             <v>1332</v>
           </cell>
@@ -7845,7 +7885,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink32.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -7884,7 +7924,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink33.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -7898,26 +7938,26 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="J2">
-            <v>98.26</v>
+            <v>159.69999999999999</v>
           </cell>
         </row>
         <row r="4">
           <cell r="J4">
-            <v>83206.352417560003</v>
+            <v>33748.665421799997</v>
           </cell>
         </row>
         <row r="5">
           <cell r="J5">
-            <v>5065</v>
+            <v>97.197999999999993</v>
           </cell>
         </row>
         <row r="6">
           <cell r="J6">
-            <v>21369</v>
+            <v>59.99</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -23669,8 +23709,8 @@
   <dimension ref="A1:M291"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <pane ySplit="3" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23808,15 +23848,15 @@
         <v>2</v>
       </c>
       <c r="E6">
-        <f>+[32]Main!$J$2</f>
+        <f>+[20]Main!$J$2</f>
         <v>98.26</v>
       </c>
       <c r="F6" s="8">
-        <f>+[32]Main!$J$4</f>
+        <f>+[20]Main!$J$4</f>
         <v>83206.352417560003</v>
       </c>
       <c r="G6" s="8">
-        <f>+[32]Main!$J$6-[32]Main!$J$5</f>
+        <f>+[20]Main!$J$6-[20]Main!$J$5</f>
         <v>16304</v>
       </c>
       <c r="H6" s="8">
@@ -23842,15 +23882,15 @@
         <v>976</v>
       </c>
       <c r="E7">
-        <f>+[20]Main!$K$2</f>
+        <f>+[21]Main!$K$2</f>
         <v>114</v>
       </c>
       <c r="F7" s="8">
-        <f>+[20]Main!$K$4*FX!C9</f>
+        <f>+[21]Main!$K$4*FX!C9</f>
         <v>76597.055999999997</v>
       </c>
       <c r="G7" s="8">
-        <f>+([20]Main!$K$6-[20]Main!$K$5)*FX!C9</f>
+        <f>+([21]Main!$K$6-[21]Main!$K$5)*FX!C9</f>
         <v>15809.039999999999</v>
       </c>
       <c r="H7" s="8">
@@ -23876,15 +23916,15 @@
         <v>976</v>
       </c>
       <c r="E8" s="10">
-        <f>+[21]Main!$K$2</f>
+        <f>+[22]Main!$K$2</f>
         <v>150.99</v>
       </c>
       <c r="F8" s="8">
-        <f>+[21]Main!$K$4*FX!C9</f>
+        <f>+[22]Main!$K$4*FX!C9</f>
         <v>68362.398042069603</v>
       </c>
       <c r="G8" s="8">
-        <f>+([21]Main!$K$6-[21]Main!$K$5)*FX!C9</f>
+        <f>+([22]Main!$K$6-[22]Main!$K$5)*FX!C9</f>
         <v>14754.96</v>
       </c>
       <c r="H8" s="8">
@@ -24008,7 +24048,7 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="3" t="s">
         <v>441</v>
       </c>
       <c r="C15" t="s">
@@ -24017,9 +24057,25 @@
       <c r="D15" t="s">
         <v>2</v>
       </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
+      <c r="E15">
+        <f>+[33]Main!$J$2</f>
+        <v>159.69999999999999</v>
+      </c>
+      <c r="F15" s="8">
+        <f>+[33]Main!$J$4</f>
+        <v>33748.665421799997</v>
+      </c>
+      <c r="G15" s="8">
+        <f>+[33]Main!$J$6-[33]Main!$J$5</f>
+        <v>-37.207999999999991</v>
+      </c>
+      <c r="H15" s="8">
+        <f>+F15+G15</f>
+        <v>33711.457421799998</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>2201</v>
+      </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
@@ -24054,15 +24110,15 @@
         <v>2</v>
       </c>
       <c r="E17">
-        <f>+[22]Main!$J$2</f>
+        <f>+[23]Main!$J$2</f>
         <v>41.41</v>
       </c>
       <c r="F17" s="8">
-        <f>+[22]Main!$J$4</f>
+        <f>+[23]Main!$J$4</f>
         <v>27038.873548289997</v>
       </c>
       <c r="G17" s="8">
-        <f>+[22]Main!$J$6-[22]Main!$J$5</f>
+        <f>+[23]Main!$J$6-[23]Main!$J$5</f>
         <v>12113</v>
       </c>
       <c r="H17" s="8">
@@ -24124,15 +24180,15 @@
         <v>10</v>
       </c>
       <c r="E20">
-        <f>+[23]Main!$K$2</f>
+        <f>+[24]Main!$K$2</f>
         <v>3048</v>
       </c>
       <c r="F20" s="8">
-        <f>+[23]Main!$K$4*FX!C6</f>
+        <f>+[24]Main!$K$4*FX!C6</f>
         <v>22758.353483659201</v>
       </c>
       <c r="G20" s="8">
-        <f>+([23]Main!$K$6-[23]Main!$K$5)*FX!C6</f>
+        <f>+([24]Main!$K$6-[24]Main!$K$5)*FX!C6</f>
         <v>28538.518800000002</v>
       </c>
       <c r="H20" s="8">
@@ -28969,6 +29025,7 @@
     <hyperlink ref="B8" r:id="rId5" xr:uid="{D6A631A5-1AC3-4B17-8C95-CBA0B1488886}"/>
     <hyperlink ref="B7" r:id="rId6" xr:uid="{CF58832A-C9D8-4DB5-B753-051CCE7F3A0F}"/>
     <hyperlink ref="B6" r:id="rId7" xr:uid="{01366260-8CA1-43A2-8E4D-0BF0B2049B1E}"/>
+    <hyperlink ref="B15" r:id="rId8" xr:uid="{089DBF26-835F-4778-BB80-5F04B035E247}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -29049,15 +29106,15 @@
         <v>2</v>
       </c>
       <c r="E4" s="8">
-        <f>+[24]Main!$H$3</f>
+        <f>+[25]Main!$H$3</f>
         <v>118.44</v>
       </c>
       <c r="F4" s="8">
-        <f>+[24]Main!$H$5</f>
+        <f>+[25]Main!$H$5</f>
         <v>157553.55050904001</v>
       </c>
       <c r="G4" s="8">
-        <f>+[24]Main!$H$7-[24]Main!$H$6</f>
+        <f>+[25]Main!$H$7-[25]Main!$H$6</f>
         <v>36140</v>
       </c>
       <c r="H4" s="8">
@@ -29117,15 +29174,15 @@
         <v>2</v>
       </c>
       <c r="E6" s="8">
-        <f>+[25]Main!$K$3</f>
+        <f>+[26]Main!$K$3</f>
         <v>198.13</v>
       </c>
       <c r="F6" s="8">
-        <f>+[25]Main!$K$5</f>
+        <f>+[26]Main!$K$5</f>
         <v>128719.35485599999</v>
       </c>
       <c r="G6" s="8">
-        <f>+[25]Main!$K$7-[25]Main!$K$6</f>
+        <f>+[26]Main!$K$7-[26]Main!$K$6</f>
         <v>18125</v>
       </c>
       <c r="H6" s="8">
@@ -29170,15 +29227,15 @@
         <v>2</v>
       </c>
       <c r="E8" s="8">
-        <f>+[26]Main!$H$2</f>
+        <f>+[27]Main!$H$2</f>
         <v>304.8</v>
       </c>
       <c r="F8" s="8">
-        <f>+[26]Main!$H$4</f>
+        <f>+[27]Main!$H$4</f>
         <v>83752.206079199997</v>
       </c>
       <c r="G8" s="8">
-        <f>+[26]Main!$H$6-[26]Main!$H$5</f>
+        <f>+[27]Main!$H$6-[27]Main!$H$5</f>
         <v>7899</v>
       </c>
       <c r="H8" s="8">
@@ -29204,15 +29261,15 @@
         <v>2</v>
       </c>
       <c r="E9">
-        <f>+[27]Main!$K$2</f>
+        <f>+[28]Main!$K$2</f>
         <v>519.92999999999995</v>
       </c>
       <c r="F9" s="8">
-        <f>+[27]Main!$K$4</f>
+        <f>+[28]Main!$K$4</f>
         <v>76037.290752779998</v>
       </c>
       <c r="G9" s="8">
-        <f>+[27]Main!$K$6-[27]Main!$K$5</f>
+        <f>+[28]Main!$K$6-[28]Main!$K$5</f>
         <v>11434</v>
       </c>
       <c r="H9" s="8">
@@ -29257,15 +29314,15 @@
         <v>2</v>
       </c>
       <c r="E11" s="8">
-        <f>+[28]Main!$I$3</f>
+        <f>+[29]Main!$I$3</f>
         <v>227.23</v>
       </c>
       <c r="F11" s="8">
-        <f>+[28]Main!$I$5</f>
+        <f>+[29]Main!$I$5</f>
         <v>43106.710323699997</v>
       </c>
       <c r="G11" s="8">
-        <f>+[28]Main!$I$7-[28]Main!$I$6</f>
+        <f>+[29]Main!$I$7-[29]Main!$I$6</f>
         <v>12705</v>
       </c>
       <c r="H11" s="8">
@@ -29310,15 +29367,15 @@
         <v>2</v>
       </c>
       <c r="E13" s="8">
-        <f>+[29]Main!$K$2</f>
+        <f>+[30]Main!$K$2</f>
         <v>628.66999999999996</v>
       </c>
       <c r="F13" s="8">
-        <f>+[29]Main!$K$4</f>
+        <f>+[30]Main!$K$4</f>
         <v>48170.74863622</v>
       </c>
       <c r="G13" s="8">
-        <f>+[29]Main!$K$6-[29]Main!$K$5</f>
+        <f>+[30]Main!$K$6-[30]Main!$K$5</f>
         <v>-306.06000000000006</v>
       </c>
       <c r="H13" s="8">
@@ -29382,15 +29439,15 @@
         <v>31</v>
       </c>
       <c r="E16" s="8">
-        <f>+[30]Main!$I$2</f>
+        <f>+[31]Main!$I$2</f>
         <v>1332</v>
       </c>
       <c r="F16" s="8">
-        <f>+[30]Main!$I$4*FX!C3</f>
+        <f>+[31]Main!$I$4*FX!C3</f>
         <v>62576.028000000013</v>
       </c>
       <c r="G16" s="8">
-        <f>+([30]Main!$I$6-[30]Main!$I$5)*FX!C3</f>
+        <f>+([31]Main!$I$6-[31]Main!$I$5)*FX!C3</f>
         <v>1350.51</v>
       </c>
       <c r="H16" s="8">
@@ -29492,15 +29549,15 @@
         <v>2</v>
       </c>
       <c r="E21" s="8">
-        <f>+[31]Main!$I$2</f>
+        <f>+[32]Main!$I$2</f>
         <v>265.20999999999998</v>
       </c>
       <c r="F21" s="8">
-        <f>+[31]Main!$I$4</f>
+        <f>+[32]Main!$I$4</f>
         <v>10400.271678719999</v>
       </c>
       <c r="G21" s="8">
-        <f>+[31]Main!$I$6-[31]Main!$I$5</f>
+        <f>+[32]Main!$I$6-[32]Main!$I$5</f>
         <v>2646</v>
       </c>
       <c r="H21" s="8">

--- a/Industrials.xlsx
+++ b/Industrials.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Sectors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0387DB08-68DC-4AF7-A217-2836BC55D7E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FA9BFDC-3D56-4C07-9E7F-64F2B5EA7EF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="780" windowWidth="38175" windowHeight="15240" activeTab="4" xr2:uid="{BC09624D-2BC9-4D8E-825C-85DD97F4255E}"/>
+    <workbookView xWindow="225" yWindow="4980" windowWidth="38175" windowHeight="15240" activeTab="2" xr2:uid="{BC09624D-2BC9-4D8E-825C-85DD97F4255E}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -56,6 +56,8 @@
     <externalReference r:id="rId39"/>
     <externalReference r:id="rId40"/>
     <externalReference r:id="rId41"/>
+    <externalReference r:id="rId42"/>
+    <externalReference r:id="rId43"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -78,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3386" uniqueCount="2216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3388" uniqueCount="2216">
   <si>
     <t>Industrials Universe</t>
   </si>
@@ -7029,7 +7031,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -7068,7 +7070,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -7127,26 +7129,26 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="I2">
-            <v>159.66</v>
+            <v>230.1</v>
           </cell>
         </row>
         <row r="4">
           <cell r="I4">
-            <v>119756.88046026</v>
+            <v>173496.6595674</v>
           </cell>
         </row>
         <row r="5">
           <cell r="I5">
-            <v>26282</v>
+            <v>23674</v>
           </cell>
         </row>
         <row r="6">
           <cell r="I6">
-            <v>53864</v>
+            <v>53618</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -7239,37 +7241,35 @@
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Model"/>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
       <sheetName val="14th"/>
-      <sheetName val="IP"/>
-      <sheetName val="Semiconductors"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="2">
-          <cell r="L2">
+          <cell r="K2">
             <v>20</v>
           </cell>
         </row>
         <row r="4">
-          <cell r="L4">
-            <v>85340</v>
-          </cell>
+          <cell r="L4"/>
         </row>
         <row r="5">
-          <cell r="L5">
-            <v>35097</v>
+          <cell r="L5" t="str">
+            <v>Q224</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="L6">
-            <v>53029</v>
+          <cell r="L6" t="str">
+            <v>Q224</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
+      <sheetData sheetId="4" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -7404,22 +7404,22 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="L2">
-            <v>218.47</v>
+            <v>225.5</v>
           </cell>
         </row>
         <row r="4">
           <cell r="L4">
-            <v>132018.44500166</v>
+            <v>134730.75005499998</v>
           </cell>
         </row>
         <row r="5">
           <cell r="L5">
-            <v>1036</v>
+            <v>1411</v>
           </cell>
         </row>
         <row r="6">
           <cell r="L6">
-            <v>31192</v>
+            <v>32842</v>
           </cell>
         </row>
       </sheetData>
@@ -7675,6 +7675,79 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
+        <row r="2">
+          <cell r="J2">
+            <v>114.99</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="J4">
+            <v>15747.656844450001</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="J5">
+            <v>1318.52</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="J6">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink28.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="J2">
+            <v>160.88</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="J4">
+            <v>6650.9066169600001</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="J7">
+            <v>14264.906616960001</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink29.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
         <row r="3">
           <cell r="H3">
             <v>118.44</v>
@@ -7693,82 +7766,6 @@
         <row r="7">
           <cell r="H7">
             <v>42151</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink28.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Main"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="K3">
-            <v>198.13</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="K5">
-            <v>128719.35485599999</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="K6">
-            <v>9807</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="K7">
-            <v>27932</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink29.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="Model"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="H2">
-            <v>304.8</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="H4">
-            <v>83752.206079199997</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="H5">
-            <v>1362</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="H6">
-            <v>9261</v>
           </cell>
         </row>
       </sheetData>
@@ -7823,6 +7820,82 @@
     </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Main"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="K3">
+            <v>198.13</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="K5">
+            <v>128719.35485599999</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="K6">
+            <v>9807</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="K7">
+            <v>27932</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink31.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="H2">
+            <v>304.8</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="H4">
+            <v>83752.206079199997</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="H5">
+            <v>1362</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="H6">
+            <v>9261</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink32.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
       <sheetName val="Model"/>
     </sheetNames>
     <sheetDataSet>
@@ -7854,7 +7927,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink33.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -7893,7 +7966,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink34.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -7932,7 +8005,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink35.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -7971,7 +8044,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink36.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -8010,7 +8083,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink37.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -8258,22 +8331,22 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="H2">
-            <v>1100</v>
+            <v>1130</v>
           </cell>
         </row>
         <row r="4">
           <cell r="H4">
-            <v>28520881.400000002</v>
+            <v>29299770</v>
           </cell>
         </row>
         <row r="5">
           <cell r="H5">
-            <v>2167600</v>
+            <v>2634429</v>
           </cell>
         </row>
         <row r="6">
           <cell r="H6">
-            <v>968509</v>
+            <v>942749</v>
           </cell>
         </row>
       </sheetData>
@@ -9975,9 +10048,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2E71446-867A-48FD-BFD5-4BAC6DAC2D69}">
   <dimension ref="A1:S718"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10057,19 +10130,19 @@
       </c>
       <c r="E4" s="20">
         <f>+[9]Main!$H$2</f>
-        <v>1100</v>
+        <v>1130</v>
       </c>
       <c r="F4" s="21">
         <f>+[9]Main!$H$4*FX!C7</f>
-        <v>884147.32340000011</v>
+        <v>908292.87</v>
       </c>
       <c r="G4" s="21">
         <f>+([9]Main!$H$6-[9]Main!$H$5)*FX!C7</f>
-        <v>-37171.820999999996</v>
+        <v>-52442.080000000002</v>
       </c>
       <c r="H4" s="21">
         <f t="shared" ref="H4:H10" si="0">+F4+G4</f>
-        <v>846975.50240000011</v>
+        <v>855850.79</v>
       </c>
       <c r="I4" s="9" t="s">
         <v>236</v>
@@ -10348,22 +10421,22 @@
       </c>
       <c r="E13" s="20">
         <f>+[14]Main!$I$2</f>
-        <v>159.66</v>
+        <v>230.1</v>
       </c>
       <c r="F13" s="8">
         <f>+[14]Main!$I$4</f>
-        <v>119756.88046026</v>
+        <v>173496.6595674</v>
       </c>
       <c r="G13" s="8">
         <f>+[14]Main!$I$6-[14]Main!$I$5</f>
-        <v>27582</v>
+        <v>29944</v>
       </c>
       <c r="H13" s="8">
         <f>+F13+G13</f>
-        <v>147338.88046026</v>
+        <v>203440.6595674</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>236</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
@@ -10450,19 +10523,19 @@
       </c>
       <c r="E16" s="20">
         <f>+[17]Main!$L$2</f>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F16" s="8">
         <f>+[17]Main!$L$4</f>
-        <v>85340</v>
-      </c>
-      <c r="G16" s="8">
+        <v>0</v>
+      </c>
+      <c r="G16" s="8" t="e">
         <f>+[17]Main!$L$6-[17]Main!$L$5</f>
-        <v>17932</v>
-      </c>
-      <c r="H16" s="8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H16" s="8" t="e">
         <f>+F16+G16</f>
-        <v>103272</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I16" s="9" t="s">
         <v>343</v>
@@ -23812,7 +23885,7 @@
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B30" sqref="B30"/>
+      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23917,22 +23990,22 @@
       </c>
       <c r="E5">
         <f>+[20]Main!$L$2</f>
-        <v>218.47</v>
+        <v>225.5</v>
       </c>
       <c r="F5" s="8">
         <f>+[20]Main!$L$4</f>
-        <v>132018.44500166</v>
+        <v>134730.75005499998</v>
       </c>
       <c r="G5" s="8">
         <f>+[20]Main!$L$6-[20]Main!$L$5</f>
-        <v>30156</v>
+        <v>31431</v>
       </c>
       <c r="H5" s="8">
         <f>+F5+G5</f>
-        <v>162174.44500166</v>
+        <v>166161.75005499998</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>236</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -24486,7 +24559,7 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="3" t="s">
         <v>472</v>
       </c>
       <c r="C31" t="s">
@@ -24495,9 +24568,25 @@
       <c r="D31" t="s">
         <v>2</v>
       </c>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
+      <c r="E31">
+        <f>+[27]Main!$J$2</f>
+        <v>114.99</v>
+      </c>
+      <c r="F31" s="8">
+        <f>+[27]Main!$J$4</f>
+        <v>15747.656844450001</v>
+      </c>
+      <c r="G31" s="8">
+        <f>+[27]Main!$J$6-[27]Main!$J$5</f>
+        <v>-1318.52</v>
+      </c>
+      <c r="H31" s="8">
+        <f>+F31+G31</f>
+        <v>14429.13684445</v>
+      </c>
+      <c r="I31" s="9" t="s">
+        <v>2200</v>
+      </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
@@ -25093,7 +25182,7 @@
       <c r="G64" s="8"/>
       <c r="H64" s="8"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -25111,7 +25200,7 @@
       <c r="G65" s="8"/>
       <c r="H65" s="8"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -25129,7 +25218,7 @@
       <c r="G66" s="8"/>
       <c r="H66" s="8"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -25147,7 +25236,7 @@
       <c r="G67" s="8"/>
       <c r="H67" s="8"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -25165,7 +25254,7 @@
       <c r="G68" s="8"/>
       <c r="H68" s="8"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <f t="shared" si="0"/>
         <v>66</v>
@@ -25183,7 +25272,7 @@
       <c r="G69" s="8"/>
       <c r="H69" s="8"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <f t="shared" ref="A70:A133" si="1">+A69+1</f>
         <v>67</v>
@@ -25201,7 +25290,7 @@
       <c r="G70" s="8"/>
       <c r="H70" s="8"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <f t="shared" si="1"/>
         <v>68</v>
@@ -25219,7 +25308,7 @@
       <c r="G71" s="8"/>
       <c r="H71" s="8"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <f t="shared" si="1"/>
         <v>69</v>
@@ -25237,7 +25326,7 @@
       <c r="G72" s="8"/>
       <c r="H72" s="8"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -25255,12 +25344,12 @@
       <c r="G73" s="8"/>
       <c r="H73" s="8"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <f t="shared" si="1"/>
         <v>71</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="3" t="s">
         <v>558</v>
       </c>
       <c r="C74" t="s">
@@ -25269,11 +25358,27 @@
       <c r="D74" t="s">
         <v>2</v>
       </c>
-      <c r="F74" s="8"/>
-      <c r="G74" s="8"/>
-      <c r="H74" s="8"/>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E74">
+        <f>+[28]Main!$J$2</f>
+        <v>160.88</v>
+      </c>
+      <c r="F74" s="8">
+        <f>+[28]Main!$J$4</f>
+        <v>6650.9066169600001</v>
+      </c>
+      <c r="G74" s="8">
+        <f>+[28]Main!$J$7</f>
+        <v>14264.906616960001</v>
+      </c>
+      <c r="H74" s="8">
+        <f>+F74+G74</f>
+        <v>20915.813233920002</v>
+      </c>
+      <c r="I74" s="9" t="s">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <f t="shared" si="1"/>
         <v>72</v>
@@ -25291,7 +25396,7 @@
       <c r="G75" s="8"/>
       <c r="H75" s="8"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <f t="shared" si="1"/>
         <v>73</v>
@@ -25309,7 +25414,7 @@
       <c r="G76" s="8"/>
       <c r="H76" s="8"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <f t="shared" si="1"/>
         <v>74</v>
@@ -25327,7 +25432,7 @@
       <c r="G77" s="8"/>
       <c r="H77" s="8"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <f t="shared" si="1"/>
         <v>75</v>
@@ -25345,7 +25450,7 @@
       <c r="G78" s="8"/>
       <c r="H78" s="8"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <f t="shared" si="1"/>
         <v>76</v>
@@ -25363,7 +25468,7 @@
       <c r="G79" s="8"/>
       <c r="H79" s="8"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <f t="shared" si="1"/>
         <v>77</v>
@@ -29128,6 +29233,8 @@
     <hyperlink ref="B7" r:id="rId6" xr:uid="{CF58832A-C9D8-4DB5-B753-051CCE7F3A0F}"/>
     <hyperlink ref="B6" r:id="rId7" xr:uid="{01366260-8CA1-43A2-8E4D-0BF0B2049B1E}"/>
     <hyperlink ref="B15" r:id="rId8" xr:uid="{089DBF26-835F-4778-BB80-5F04B035E247}"/>
+    <hyperlink ref="B74" r:id="rId9" xr:uid="{DA9E5597-D89F-4437-B8A8-19175EE281BB}"/>
+    <hyperlink ref="B31" r:id="rId10" xr:uid="{44844D1C-369A-40AB-AC30-4509691AAA16}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -29137,8 +29244,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DC3D7C0-0E3F-4465-BEEB-87D764EA4CA8}">
   <dimension ref="A1:M44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29208,15 +29315,15 @@
         <v>2</v>
       </c>
       <c r="E4" s="8">
-        <f>+[27]Main!$H$3</f>
+        <f>+[29]Main!$H$3</f>
         <v>118.44</v>
       </c>
       <c r="F4" s="8">
-        <f>+[27]Main!$H$5</f>
+        <f>+[29]Main!$H$5</f>
         <v>157553.55050904001</v>
       </c>
       <c r="G4" s="8">
-        <f>+[27]Main!$H$7-[27]Main!$H$6</f>
+        <f>+[29]Main!$H$7-[29]Main!$H$6</f>
         <v>36140</v>
       </c>
       <c r="H4" s="8">
@@ -29276,15 +29383,15 @@
         <v>2</v>
       </c>
       <c r="E6" s="8">
-        <f>+[28]Main!$K$3</f>
+        <f>+[30]Main!$K$3</f>
         <v>198.13</v>
       </c>
       <c r="F6" s="8">
-        <f>+[28]Main!$K$5</f>
+        <f>+[30]Main!$K$5</f>
         <v>128719.35485599999</v>
       </c>
       <c r="G6" s="8">
-        <f>+[28]Main!$K$7-[28]Main!$K$6</f>
+        <f>+[30]Main!$K$7-[30]Main!$K$6</f>
         <v>18125</v>
       </c>
       <c r="H6" s="8">
@@ -29329,15 +29436,15 @@
         <v>2</v>
       </c>
       <c r="E8" s="8">
-        <f>+[29]Main!$H$2</f>
+        <f>+[31]Main!$H$2</f>
         <v>304.8</v>
       </c>
       <c r="F8" s="8">
-        <f>+[29]Main!$H$4</f>
+        <f>+[31]Main!$H$4</f>
         <v>83752.206079199997</v>
       </c>
       <c r="G8" s="8">
-        <f>+[29]Main!$H$6-[29]Main!$H$5</f>
+        <f>+[31]Main!$H$6-[31]Main!$H$5</f>
         <v>7899</v>
       </c>
       <c r="H8" s="8">
@@ -29363,15 +29470,15 @@
         <v>2</v>
       </c>
       <c r="E9">
-        <f>+[30]Main!$K$2</f>
+        <f>+[32]Main!$K$2</f>
         <v>519.92999999999995</v>
       </c>
       <c r="F9" s="8">
-        <f>+[30]Main!$K$4</f>
+        <f>+[32]Main!$K$4</f>
         <v>76037.290752779998</v>
       </c>
       <c r="G9" s="8">
-        <f>+[30]Main!$K$6-[30]Main!$K$5</f>
+        <f>+[32]Main!$K$6-[32]Main!$K$5</f>
         <v>11434</v>
       </c>
       <c r="H9" s="8">
@@ -29416,15 +29523,15 @@
         <v>2</v>
       </c>
       <c r="E11" s="8">
-        <f>+[31]Main!$I$3</f>
+        <f>+[33]Main!$I$3</f>
         <v>227.23</v>
       </c>
       <c r="F11" s="8">
-        <f>+[31]Main!$I$5</f>
+        <f>+[33]Main!$I$5</f>
         <v>43106.710323699997</v>
       </c>
       <c r="G11" s="8">
-        <f>+[31]Main!$I$7-[31]Main!$I$6</f>
+        <f>+[33]Main!$I$7-[33]Main!$I$6</f>
         <v>12705</v>
       </c>
       <c r="H11" s="8">
@@ -29469,15 +29576,15 @@
         <v>2</v>
       </c>
       <c r="E13" s="8">
-        <f>+[32]Main!$K$2</f>
+        <f>+[34]Main!$K$2</f>
         <v>628.66999999999996</v>
       </c>
       <c r="F13" s="8">
-        <f>+[32]Main!$K$4</f>
+        <f>+[34]Main!$K$4</f>
         <v>48170.74863622</v>
       </c>
       <c r="G13" s="8">
-        <f>+[32]Main!$K$6-[32]Main!$K$5</f>
+        <f>+[34]Main!$K$6-[34]Main!$K$5</f>
         <v>-306.06000000000006</v>
       </c>
       <c r="H13" s="8">
@@ -29541,15 +29648,15 @@
         <v>31</v>
       </c>
       <c r="E16" s="8">
-        <f>+[33]Main!$I$2</f>
+        <f>+[35]Main!$I$2</f>
         <v>1332</v>
       </c>
       <c r="F16" s="8">
-        <f>+[33]Main!$I$4*FX!C3</f>
+        <f>+[35]Main!$I$4*FX!C3</f>
         <v>62576.028000000013</v>
       </c>
       <c r="G16" s="8">
-        <f>+([33]Main!$I$6-[33]Main!$I$5)*FX!C3</f>
+        <f>+([35]Main!$I$6-[35]Main!$I$5)*FX!C3</f>
         <v>1350.51</v>
       </c>
       <c r="H16" s="8">
@@ -29651,15 +29758,15 @@
         <v>2</v>
       </c>
       <c r="E21" s="8">
-        <f>+[34]Main!$I$2</f>
+        <f>+[36]Main!$I$2</f>
         <v>265.20999999999998</v>
       </c>
       <c r="F21" s="8">
-        <f>+[34]Main!$I$4</f>
+        <f>+[36]Main!$I$4</f>
         <v>10400.271678719999</v>
       </c>
       <c r="G21" s="8">
-        <f>+[34]Main!$I$6-[34]Main!$I$5</f>
+        <f>+[36]Main!$I$6-[36]Main!$I$5</f>
         <v>2646</v>
       </c>
       <c r="H21" s="8">
@@ -30027,15 +30134,15 @@
         <v>2</v>
       </c>
       <c r="E40">
-        <f>+[35]Main!$K$2</f>
+        <f>+[37]Main!$K$2</f>
         <v>52.3</v>
       </c>
       <c r="F40" s="8">
-        <f>+[35]Main!$K$4</f>
+        <f>+[37]Main!$K$4</f>
         <v>2580.9004</v>
       </c>
       <c r="G40" s="8">
-        <f>+[35]Main!$K$6-[35]Main!$K$5</f>
+        <f>+[37]Main!$K$6-[37]Main!$K$5</f>
         <v>-107.15900000000001</v>
       </c>
       <c r="H40" s="8">

--- a/Industrials.xlsx
+++ b/Industrials.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Sectors\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\MetaModels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FA9BFDC-3D56-4C07-9E7F-64F2B5EA7EF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4FDC392-97E0-4E6C-AB4C-9516F3BC88E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="4980" windowWidth="38175" windowHeight="15240" activeTab="2" xr2:uid="{BC09624D-2BC9-4D8E-825C-85DD97F4255E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" activeTab="2" xr2:uid="{BC09624D-2BC9-4D8E-825C-85DD97F4255E}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -7031,7 +7031,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -7070,7 +7070,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -7148,7 +7148,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -7247,11 +7247,6 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="2">
-          <cell r="K2">
-            <v>20</v>
-          </cell>
-        </row>
         <row r="4">
           <cell r="L4"/>
         </row>
@@ -10050,7 +10045,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I14" sqref="I14"/>
+      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
